--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Якась нова кава" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,22 +35,22 @@
     <t>Опис</t>
   </si>
   <si>
-    <t>Себе</t>
-  </si>
-  <si>
-    <t>Ненавиджу</t>
-  </si>
-  <si>
-    <t>це</t>
-  </si>
-  <si>
-    <t>правда</t>
-  </si>
-  <si>
-    <t>Я</t>
-  </si>
-  <si>
-    <t>не</t>
+    <t>Якась</t>
+  </si>
+  <si>
+    <t>нова</t>
+  </si>
+  <si>
+    <t>кава</t>
+  </si>
+  <si>
+    <t>ось</t>
+  </si>
+  <si>
+    <t>вона</t>
+  </si>
+  <si>
+    <t>є</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,35 +405,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
